--- a/r/raw/PlantResults_Cu.MIC.xlsx
+++ b/r/raw/PlantResults_Cu.MIC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f14c0c83aeaa8c8/Documents/Uni/2025/Session 1/Placements_FOSE7901/Placement 1/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f14c0c83aeaa8c8/Documents/Uni/2025/Session 1/Placements_FOSE7901/Placement 1/Deliverables/r/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="400" documentId="8_{4C056574-35CD-4693-9297-BE17D6D654C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3456567-33AF-42F9-88DC-A9847B93594D}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="8_{4C056574-35CD-4693-9297-BE17D6D654C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63EB4476-9A93-4C07-9438-0419528B0904}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{5A1AF001-11BA-4DFA-9937-B5448583DDE0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A1AF001-11BA-4DFA-9937-B5448583DDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="weights" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="110">
   <si>
     <t>No. of Nodules</t>
   </si>
@@ -641,6 +641,9 @@
   </si>
   <si>
     <t>%bumped</t>
+  </si>
+  <si>
+    <t>*adjusted to 1 for analysis (limit of detection)</t>
   </si>
 </sst>
 </file>
@@ -3670,8 +3673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E8A539-EC0A-4222-BB1B-C46D981F76A6}">
   <dimension ref="B1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3685,7 +3688,7 @@
     <col min="16" max="16" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B1" s="63" t="s">
         <v>90</v>
       </c>
@@ -3695,7 +3698,7 @@
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B3" s="16" t="s">
         <v>89</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3744,7 +3747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
@@ -3776,7 +3779,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>78</v>
       </c>
@@ -3808,7 +3811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
         <v>76</v>
       </c>
@@ -3840,7 +3843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>74</v>
       </c>
@@ -3872,7 +3875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>72</v>
       </c>
@@ -3904,7 +3907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>70</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="48" t="s">
         <v>68</v>
       </c>
@@ -3967,8 +3970,11 @@
       <c r="O11" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>65</v>
       </c>
@@ -4000,7 +4006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
         <v>63</v>
       </c>
@@ -4026,7 +4032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" s="48" t="s">
         <v>61</v>
       </c>
@@ -4091,8 +4097,8 @@
         <v>103</v>
       </c>
       <c r="P19" s="10">
-        <f>AVERAGE(O5:O8,O11)</f>
-        <v>4.375</v>
+        <f>AVERAGE(O5:O8,1)</f>
+        <v>3.7</v>
       </c>
     </row>
     <row r="20" spans="6:16" x14ac:dyDescent="0.35">
@@ -4183,8 +4189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07773AA7-4135-4F1C-80D4-4CEE87E12F0A}">
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
